--- a/WF3_template.xlsx
+++ b/WF3_template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6A9A41-B6BD-FE4D-8AA3-28BB4868C1E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BB627A-2197-9445-9378-69135EDDE20C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22100" yWindow="460" windowWidth="28940" windowHeight="27640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22100" yWindow="460" windowWidth="28940" windowHeight="27560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WF1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="103">
   <si>
     <t>ExpWorkflowVer</t>
   </si>
@@ -55,9 +55,6 @@
     <t>[[2,3,1],[6,7]]</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -154,15 +151,6 @@
     <t>Reagent2_item2_formulaconc</t>
   </si>
   <si>
-    <t>Reagent2_prep_temperature</t>
-  </si>
-  <si>
-    <t>Reagent2_prep_stirrate</t>
-  </si>
-  <si>
-    <t>Reagent2_prep_duration</t>
-  </si>
-  <si>
     <t>Reagent3_item1_formulaconc</t>
   </si>
   <si>
@@ -172,6 +160,12 @@
     <t>Under Repair -- do not enable</t>
   </si>
   <si>
+    <t>WF1 Options are "LBL", "HC", or "ECL" (ECL specific experiment model generation is in development)</t>
+  </si>
+  <si>
+    <t>WF1 max = 96   (sum of all exp_wells variables MUST sum to this value)</t>
+  </si>
+  <si>
     <t>Max Experiments = 9</t>
   </si>
   <si>
@@ -200,18 +194,6 @@
   </si>
   <si>
     <t>Number of wells allocated to experiment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent preparation temperature </t>
-  </si>
-  <si>
-    <t>Reagent preparation stirrate</t>
-  </si>
-  <si>
-    <t>Reagent preparation duration</t>
-  </si>
-  <si>
-    <t>Only specify for a reagent if different than values in "Actions" section (Can be specified for any reagent)</t>
   </si>
   <si>
     <t>Lowest priority should often be given to solvent.  (ex. [2,3,1] might be PbI2, Ethylammonium Iodide, GBL)</t>
@@ -296,6 +278,9 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>LBL = Symyx_96_well_0003, ECL = Model[Container, Vessel, "8x43mm Glass Reaction Vial"]</t>
   </si>
   <si>
     <t>This will eventually be automated based on lab selection. For now user must specify</t>
@@ -520,41 +505,6 @@
     <t>List of the chemicals in reagent 2.  Use 'quotes' in list. Presented in priority order (final entry should be solvent)</t>
   </si>
   <si>
-    <t>Reagent2_ID</t>
-  </si>
-  <si>
-    <t>Model[Sample, StockSolution, "id:kEJ9mqR8n6WP"]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ECL model ID.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cannot be used in with `Reagent#_chemical_list`</t>
-    </r>
-  </si>
-  <si>
-    <t>See 'Reagents' workbook</t>
-  </si>
-  <si>
-    <t>Reagent3_ID</t>
-  </si>
-  <si>
-    <t>Reagent1_ID</t>
-  </si>
-  <si>
-    <t>Model[Sample, Chemical, "id:N80DNjlYwwAo"]</t>
-  </si>
-  <si>
     <t>['PbI2','BenzylammoniumIodide','GBL']</t>
   </si>
   <si>
@@ -570,9 +520,6 @@
     <t>[7]</t>
   </si>
   <si>
-    <t>[[2,3,1],[4,5],[7]]</t>
-  </si>
-  <si>
     <t>WF1 = ITC Temperature, WF3 = Temperature prior to Vapor Diffusion (VD is at RT)</t>
   </si>
   <si>
@@ -591,19 +538,10 @@
     <t>WF3 Cooling time(s) (after all reagents have been added)</t>
   </si>
   <si>
-    <t>[[500,500],[0,250],[1000,1000]]</t>
-  </si>
-  <si>
-    <t>WF3 specification for which reagents (solvents) are portioned into the antisolvent container</t>
-  </si>
-  <si>
-    <t>WF3 max = 24   (sum of all exp_wells variables MUST sum to this value)</t>
-  </si>
-  <si>
-    <t>LBL = Symyx_96_well_0003, ECL = CANNOT SPECIFY ECL FOR WF3</t>
-  </si>
-  <si>
-    <t>WF1 Options are "LBL", "HC", CANNOT SPECIFY ECL FOR WF3</t>
+    <t>[[500,500],[250,250]]</t>
+  </si>
+  <si>
+    <t>[[2,3,4,5,1],[7]]</t>
   </si>
 </sst>
 </file>
@@ -772,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -948,18 +886,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1271,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1282,7 +1208,7 @@
     <col min="1" max="1" width="25.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="41.5" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="91.5" style="5" bestFit="1" customWidth="1"/>
@@ -1291,7 +1217,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="12" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>5</v>
@@ -1300,24 +1226,24 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="F1" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -1339,20 +1265,20 @@
         <v>3</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="14">
         <v>1.1000000000000001</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>1</v>
@@ -1361,41 +1287,41 @@
         <v>0</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="20">
         <v>0</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" s="12" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
       <c r="B5" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="30"/>
@@ -1403,14 +1329,14 @@
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
       <c r="G6" s="31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28"/>
       <c r="B7" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>1</v>
@@ -1419,102 +1345,98 @@
         <v>24</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="29">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="28"/>
       <c r="B8" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28"/>
       <c r="B9" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="28"/>
       <c r="B10" s="29" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="31" t="s">
-        <v>115</v>
-      </c>
+      <c r="G10" s="31"/>
       <c r="H10" s="32"/>
     </row>
     <row r="11" spans="1:8" s="12" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="66"/>
-      <c r="B11" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="67">
+      <c r="A11" s="62"/>
+      <c r="B11" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="63">
         <v>24</v>
       </c>
-      <c r="E11" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="67">
-        <v>24</v>
-      </c>
-      <c r="G11" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="70" t="s">
-        <v>56</v>
+      <c r="E11" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="63"/>
+      <c r="G11" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="66" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -1527,10 +1449,10 @@
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
       <c r="G12" s="37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -1542,242 +1464,198 @@
       <c r="F13" s="35"/>
       <c r="G13" s="37"/>
       <c r="H13" s="56" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34"/>
       <c r="B14" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="60" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="15" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15" s="65" t="s">
-        <v>98</v>
-      </c>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38"/>
+      <c r="B16" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
       <c r="B17" s="35" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C17" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="35" t="s">
-        <v>102</v>
+      <c r="D17" s="35">
+        <v>1.5</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>91</v>
+        <v>14</v>
+      </c>
+      <c r="F17" s="35">
+        <v>3</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="65" t="s">
-        <v>98</v>
-      </c>
+      <c r="A18" s="34"/>
+      <c r="B18" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="38"/>
     </row>
     <row r="19" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="34"/>
-      <c r="B19" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="35">
-        <v>1.5</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="35">
-        <v>3</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>80</v>
-      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="34"/>
       <c r="B20" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="38"/>
+    </row>
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="34"/>
+      <c r="B21" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="35">
-        <v>1.5</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="35">
-        <v>1.5</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="38"/>
-    </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="39" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="35">
-        <v>75</v>
+        <v>3.15</v>
       </c>
       <c r="E21" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="35">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>63</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="H21" s="38"/>
     </row>
     <row r="22" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="35">
-        <v>450</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="35">
-        <v>450</v>
-      </c>
-      <c r="G22" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>63</v>
-      </c>
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
-        <v>11</v>
-      </c>
+      <c r="A23" s="34"/>
       <c r="B23" s="35" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C23" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="35">
-        <v>3600</v>
+      <c r="D23" s="35" t="s">
+        <v>88</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="35">
-        <v>3600</v>
+        <v>39</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>63</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="34"/>
@@ -1792,482 +1670,367 @@
     <row r="25" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="34"/>
       <c r="B25" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="36" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G25" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="38"/>
+    </row>
+    <row r="26" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="34"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="38"/>
+    </row>
+    <row r="27" spans="1:8" s="12" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="40"/>
+      <c r="B27" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="68"/>
+    </row>
+    <row r="28" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="48"/>
+    </row>
+    <row r="29" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="44"/>
+      <c r="B29" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="45">
+        <v>750</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="45">
+        <v>750</v>
+      </c>
+      <c r="G29" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="48"/>
+    </row>
+    <row r="30" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="44"/>
+      <c r="B30" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="45">
+        <v>80</v>
+      </c>
+      <c r="E30" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="45">
+        <v>80</v>
+      </c>
+      <c r="G30" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="38"/>
-    </row>
-    <row r="26" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="61" t="s">
+      <c r="H30" s="48"/>
+    </row>
+    <row r="31" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="44"/>
+      <c r="B31" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="45">
+        <v>900</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="45">
+        <v>900</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" s="48"/>
+    </row>
+    <row r="32" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="44"/>
+      <c r="B32" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="45">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="45">
+        <v>1200</v>
+      </c>
+      <c r="G32" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="61" t="s">
+    </row>
+    <row r="33" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="44"/>
+      <c r="B33" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="45">
+        <v>25</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="45">
+        <v>80</v>
+      </c>
+      <c r="G33" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="44"/>
+      <c r="B34" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="45">
+        <v>120</v>
+      </c>
+      <c r="E34" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="45">
+        <v>120</v>
+      </c>
+      <c r="G34" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="H34" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="H26" s="65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
-      <c r="B27" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="35">
-        <v>3.15</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="35">
-        <v>6</v>
-      </c>
-      <c r="G27" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" s="38"/>
-    </row>
-    <row r="28" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="38"/>
-    </row>
-    <row r="29" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="H29" s="38"/>
-    </row>
-    <row r="30" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38"/>
-    </row>
-    <row r="31" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="38"/>
-    </row>
-    <row r="32" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="34"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="38"/>
-    </row>
-    <row r="33" spans="1:8" s="12" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="40"/>
-      <c r="B33" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="72"/>
-    </row>
-    <row r="34" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="48"/>
     </row>
     <row r="35" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="44"/>
       <c r="B35" s="45" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C35" s="49" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="45">
-        <v>750</v>
+        <v>3</v>
       </c>
       <c r="E35" s="45" t="s">
         <v>14</v>
       </c>
       <c r="F35" s="45">
-        <v>750</v>
-      </c>
-      <c r="G35" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="H35" s="48"/>
-    </row>
-    <row r="36" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="44"/>
-      <c r="B36" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="45">
-        <v>80</v>
-      </c>
-      <c r="E36" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="45">
-        <v>80</v>
-      </c>
-      <c r="G36" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" s="48"/>
+        <v>3</v>
+      </c>
+      <c r="G35" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="12" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="50"/>
+      <c r="B36" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="51"/>
+      <c r="G36" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="55" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="37" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="44"/>
-      <c r="B37" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="45">
-        <v>900</v>
-      </c>
-      <c r="E37" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="45">
-        <v>900</v>
-      </c>
-      <c r="G37" s="47" t="s">
-        <v>110</v>
-      </c>
+      <c r="A37" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="47"/>
       <c r="H37" s="48"/>
     </row>
     <row r="38" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="44"/>
       <c r="B38" s="45" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C38" s="49" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="45">
-        <v>1200</v>
+        <v>45</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F38" s="45">
-        <v>1200</v>
+        <v>45</v>
       </c>
       <c r="G38" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="H38" s="48" t="s">
-        <v>112</v>
+        <v>70</v>
+      </c>
+      <c r="H38" s="58" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="44"/>
       <c r="B39" s="45" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C39" s="49" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="45">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F39" s="45">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G39" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="H39" s="48" t="s">
-        <v>108</v>
+        <v>73</v>
+      </c>
+      <c r="H39" s="58" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="44"/>
       <c r="B40" s="45" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C40" s="49" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="45">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="E40" s="45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F40" s="45">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="G40" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="H40" s="48" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="44"/>
-      <c r="B41" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="45">
-        <v>3</v>
-      </c>
-      <c r="E41" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="45">
-        <v>3</v>
-      </c>
-      <c r="G41" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40" s="58" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="12" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="50"/>
+      <c r="B41" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="51">
+        <v>3600</v>
+      </c>
+      <c r="E41" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="51">
+        <v>3600</v>
+      </c>
+      <c r="G41" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="H41" s="48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="12" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="50"/>
-      <c r="B42" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="51"/>
-      <c r="G42" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="H42" s="55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="48"/>
-    </row>
-    <row r="44" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="44"/>
-      <c r="B44" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="45">
-        <v>45</v>
-      </c>
-      <c r="E44" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="45">
-        <v>45</v>
-      </c>
-      <c r="G44" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="H44" s="58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="44"/>
-      <c r="B45" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="45">
-        <v>75</v>
-      </c>
-      <c r="E45" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="45">
-        <v>75</v>
-      </c>
-      <c r="G45" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="H45" s="58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="44"/>
-      <c r="B46" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="45">
-        <v>450</v>
-      </c>
-      <c r="E46" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="45">
-        <v>450</v>
-      </c>
-      <c r="G46" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="H46" s="58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="12" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="50"/>
-      <c r="B47" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="51">
-        <v>3600</v>
-      </c>
-      <c r="E47" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="51">
-        <v>3600</v>
-      </c>
-      <c r="G47" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="H47" s="59" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="H41" s="59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H13" r:id="rId1" xr:uid="{BFFDF1DF-AC10-154F-90C8-6E1B425878BE}"/>
-    <hyperlink ref="H18" r:id="rId2" xr:uid="{0E829C9D-F5CA-C344-BA01-6E533C5654BA}"/>
-    <hyperlink ref="H26" r:id="rId3" xr:uid="{A121E58C-073A-E143-9B04-5E9274078D9A}"/>
-    <hyperlink ref="H15" r:id="rId4" xr:uid="{B982A0B7-E477-1C4F-8364-A396A3924E00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>